--- a/biology/Botanique/Sparaxis/Sparaxis.xlsx
+++ b/biology/Botanique/Sparaxis/Sparaxis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sparaxis est un genre de plantes à fleurs de la famille des Iridaceae, comprenant quinze espèces endémiques d'Afrique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre sont toutes endémiques d'Afrique du Sud[1]. Certaines ont été introduites en Amérique du Nord et du Sud, en Australie, en Nouvelle-Zélande et en Europe[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre sont toutes endémiques d'Afrique du Sud. Certaines ont été introduites en Amérique du Nord et du Sud, en Australie, en Nouvelle-Zélande et en Europe,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (6 juillet 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (6 juillet 2021) :
 Sparaxis auriculata Goldblatt &amp; J.C.Manning
 Sparaxis bulbifera (L.) Ker Gawl.
 Sparaxis caryophyllacea Goldblatt
@@ -593,10 +609,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom scientifique de ce taxon est Sparaxis, choisi en 1804 par le botaniste britannique John Bellenden Ker Gawler[1],[2].
-Les genres suivants sont synonymes de Sparaxis[1],[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom scientifique de ce taxon est Sparaxis, choisi en 1804 par le botaniste britannique John Bellenden Ker Gawler,.
+Les genres suivants sont synonymes de Sparaxis, :
 Anactorion Raf.
 ×Sparanthera Cif. &amp; Giacom.
 Streptanthera Sweet
